--- a/biology/Médecine/Institut_Robert-Koch/Institut_Robert-Koch.xlsx
+++ b/biology/Médecine/Institut_Robert-Koch/Institut_Robert-Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Institut Robert-Koch (Robert Koch-Institut ou RKI)[1], nommé ainsi d'après le médecin Robert Koch, est l'établissement allemand central pour l'échelon fédéral, responsable du contrôle et de la lutte contre les maladies, établissement de référence pour la recherche appliquée et la santé publique.
+L'Institut Robert-Koch (Robert Koch-Institut ou RKI), nommé ainsi d'après le médecin Robert Koch, est l'établissement allemand central pour l'échelon fédéral, responsable du contrôle et de la lutte contre les maladies, établissement de référence pour la recherche appliquée et la santé publique.
 C’est un centre épidémiologique fédéral de veille, d’alerte, d’action et de recherche opérationnelle sur la lutte contre les épidémies.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Principales missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Identification et hiérarchisation des problèmes sanitaires.
 Recherche appliquée et réponses aux problèmes sanitaires émergents.
@@ -547,9 +561,11 @@
           <t>Études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'institut a publié une étude nommée KiGGS menée de 2003 à 2006[2] analysant en détail la santé de 17461 enfants représentant un échantillon de toute la population d'un pays en recueillant 1 500 données par enfant, soit au total 20 millions de données sur leur santé, leur milieu social et familial, leurs analyses de sang et d'urine, leur statut vaccinal, afin de déterminer l'état de santé des allemands.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'institut a publié une étude nommée KiGGS menée de 2003 à 2006 analysant en détail la santé de 17461 enfants représentant un échantillon de toute la population d'un pays en recueillant 1 500 données par enfant, soit au total 20 millions de données sur leur santé, leur milieu social et familial, leurs analyses de sang et d'urine, leur statut vaccinal, afin de déterminer l'état de santé des allemands.
 </t>
         </is>
       </c>
